--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value874.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value874.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201419585563572</v>
+        <v>1.025940299034119</v>
       </c>
       <c r="B1">
-        <v>2.569507583337566</v>
+        <v>3.214179754257202</v>
       </c>
       <c r="C1">
-        <v>3.754504464382529</v>
+        <v>2.56113600730896</v>
       </c>
       <c r="D1">
-        <v>2.899749039547422</v>
+        <v>2.401116847991943</v>
       </c>
       <c r="E1">
-        <v>1.135951946733692</v>
+        <v>2.015549182891846</v>
       </c>
     </row>
   </sheetData>
